--- a/bh3/498654026717570825_2021-03-05_18-32-18.xlsx
+++ b/bh3/498654026717570825_2021-03-05_18-32-18.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:21:53</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76519675926</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -622,10 +636,8 @@
           <t>4258300992</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-13 10:23:08</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44268.43273148148</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>4224283547</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-12 21:30:04</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44267.89587962963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,10 +786,8 @@
           <t>4224283547</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:53:52</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44267.82907407408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -843,10 +851,8 @@
           <t>4225708169</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:48:36</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44267.82541666667</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-11 02:27:24</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44266.10236111111</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:44:44</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44265.69773148148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>4246168948</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-10 16:22:32</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44265.68231481482</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-10 12:40:58</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44265.52844907407</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1198,10 +1196,8 @@
           <t>4223099122</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-09 18:56:59</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44264.78957175926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1265,10 +1261,8 @@
           <t>4237478758</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-09 17:50:06</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44264.743125</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1336,10 +1330,8 @@
           <t>4237478758</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-09 17:37:39</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44264.73447916667</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1416,10 +1408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-09 16:29:00</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44264.68680555555</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1491,10 +1481,8 @@
           <t>4241827944</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-09 16:26:07</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44264.68480324074</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1566,10 +1554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-09 10:43:32</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44264.44689814815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1641,10 +1627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-08 21:08:28</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44263.88087962963</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -1720,10 +1704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-08 18:39:10</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44263.77719907407</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
@@ -1799,10 +1781,8 @@
           <t>4237478758</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-08 16:43:06</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44263.69659722222</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1870,10 +1850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-07 22:12:14</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44262.92516203703</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1933,10 +1911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-07 15:39:29</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44262.65241898148</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2012,10 +1988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-07 11:51:16</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44262.49393518519</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2083,10 +2057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:51:08</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44262.41050925926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2154,10 +2126,8 @@
           <t>4231149259</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:48:47</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44262.40887731482</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2225,10 +2195,8 @@
           <t>4231070883</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-07 09:24:22</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44262.39192129629</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2292,10 +2260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-07 08:56:08</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44262.37231481481</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2359,10 +2325,8 @@
           <t>4223351144</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-07 06:18:15</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44262.26267361111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2434,10 +2398,8 @@
           <t>4226947135</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-07 06:16:11</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44262.26123842593</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2509,10 +2471,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-07 06:12:59</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44262.2590162037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2584,10 +2544,8 @@
           <t>4230734922</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-07 06:11:46</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44262.25817129629</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2659,10 +2617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-06 21:43:52</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44261.90546296296</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
@@ -2735,10 +2691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-06 17:31:51</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44261.73045138889</v>
       </c>
       <c r="I32" t="n">
         <v>47</v>
@@ -2806,10 +2760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-06 16:43:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44261.69667824074</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
@@ -2880,10 +2832,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-06 16:26:07</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44261.68480324074</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2958,10 +2908,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-06 16:19:28</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44261.68018518519</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3029,10 +2977,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-06 15:18:27</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44261.6378125</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3136,10 +3082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-06 14:15:16</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44261.59393518518</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3215,10 +3159,8 @@
           <t>4226947135</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-06 13:58:58</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44261.58261574074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3286,10 +3228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-06 13:00:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44261.54207175926</v>
       </c>
       <c r="I39" t="n">
         <v>56</v>
@@ -3357,10 +3297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:54:09</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44261.53760416667</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3436,10 +3374,8 @@
           <t>4226615874</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:45:56</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44261.53189814815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3508,10 +3444,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:33:43</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44261.52341435185</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3579,10 +3513,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:30:02</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44261.52085648148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3651,10 +3583,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:23:53</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44261.51658564815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3722,10 +3652,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:22:18</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44261.51548611111</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3793,10 +3721,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:18:26</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44261.51280092593</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3865,10 +3791,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:15:37</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44261.51084490741</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3936,10 +3860,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:13:18</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44261.50923611111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4010,10 +3932,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:10:01</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44261.50695601852</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4082,10 +4002,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:07:15</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44261.50503472222</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4155,10 +4073,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:04:14</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44261.50293981482</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4226,10 +4142,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:04:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44261.50277777778</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4297,10 +4211,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-06 12:03:20</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44261.50231481482</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4374,10 +4286,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-06 11:57:04</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44261.49796296296</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4445,10 +4355,8 @@
           <t>4225218946</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-06 11:56:48</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44261.49777777777</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4524,10 +4432,8 @@
           <t>4226355822</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-06 11:52:58</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44261.49511574074</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -4603,10 +4509,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-06 11:30:56</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44261.47981481482</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4677,10 +4581,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-06 10:54:08</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44261.45425925926</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4748,10 +4650,8 @@
           <t>4226079693</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-06 10:50:22</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44261.45164351852</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4827,10 +4727,8 @@
           <t>4226044802</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-06 10:40:12</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44261.44458333333</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4906,10 +4804,8 @@
           <t>4226042658</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-06 10:38:30</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44261.44340277778</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4986,10 +4882,8 @@
           <t>4225905067</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-06 10:31:53</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44261.43880787037</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5065,10 +4959,8 @@
           <t>4225911540</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-06 10:03:08</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44261.41884259259</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5141,10 +5033,8 @@
           <t>4225905067</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-06 09:59:37</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44261.41640046296</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5216,10 +5106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-06 09:39:20</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44261.40231481481</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5283,10 +5171,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-06 08:00:42</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44261.33381944444</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5357,10 +5243,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-06 07:54:42</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44261.32965277778</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5428,10 +5312,8 @@
           <t>4225562702</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-06 07:53:54</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44261.32909722222</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5495,10 +5377,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-06 07:51:58</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44261.32775462963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5566,10 +5446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-06 07:46:08</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44261.3237037037</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5641,10 +5519,8 @@
           <t>4225488397</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-06 06:59:35</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44261.29137731482</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5709,10 +5585,8 @@
           <t>4225218946</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-06 01:58:38</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44261.08238425926</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5780,10 +5654,8 @@
           <t>4224979749</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-06 00:39:02</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44261.02710648148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5859,10 +5731,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-06 00:32:16</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44261.02240740741</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5926,10 +5796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-06 00:20:40</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44261.01435185185</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5993,10 +5861,8 @@
           <t>4223224324</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-06 00:08:25</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44261.00584490741</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6060,10 +5926,8 @@
           <t>4224786519</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-05 23:55:54</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44260.99715277777</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6133,10 +5997,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-05 23:26:04</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44260.97643518518</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6204,10 +6066,8 @@
           <t>4224446876</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-05 23:22:02</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44260.97363425926</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6286,10 +6146,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-05 23:21:35</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44260.97332175926</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6357,10 +6215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-05 23:12:48</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44260.96722222222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6436,10 +6292,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-05 23:10:18</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44260.96548611111</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6507,10 +6361,8 @@
           <t>4224446876</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:54:23</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44260.95443287037</v>
       </c>
       <c r="I83" t="n">
         <v>4</v>
@@ -6574,10 +6426,8 @@
           <t>4224368731</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:40:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44260.94494212963</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6641,10 +6491,8 @@
           <t>4223078374</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:31:56</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44260.93884259259</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6720,10 +6568,8 @@
           <t>4224283547</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:25:31</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44260.93438657407</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6799,10 +6645,8 @@
           <t>4224179429</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:07:55</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44260.92216435185</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6870,10 +6714,8 @@
           <t>4224138088</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-05 22:00:14</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44260.9168287037</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6933,10 +6775,8 @@
           <t>4223650926</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:58:35</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44260.91568287037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7013,10 +6853,8 @@
           <t>4224092118</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:51:01</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44260.91042824074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7097,10 +6935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:49:57</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44260.9096875</v>
       </c>
       <c r="I91" t="n">
         <v>21</v>
@@ -7160,10 +6996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:47:19</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44260.90785879629</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7223,10 +7057,8 @@
           <t>4224066621</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:46:16</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44260.90712962963</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7302,10 +7134,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:38:58</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44260.90206018519</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7373,10 +7203,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:34:54</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44260.89923611111</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7444,10 +7272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:31:02</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44260.89655092593</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7511,10 +7337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:25:19</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44260.89258101852</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7587,10 +7411,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:20:30</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44260.88923611111</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7659,10 +7481,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:17:37</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44260.8872337963</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7730,10 +7550,8 @@
           <t>4223909476</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:17:27</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44260.88711805556</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7795,10 +7613,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:15:03</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44260.88545138889</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7866,10 +7682,8 @@
           <t>4223855685</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:06:13</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44260.87931712963</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7947,10 +7761,8 @@
           <t>4223839887</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:04:54</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44260.87840277778</v>
       </c>
       <c r="I103" t="n">
         <v>7</v>
@@ -8026,10 +7838,8 @@
           <t>4223091400</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:04:40</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44260.87824074074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8105,10 +7915,8 @@
           <t>4223831717</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-05 21:01:54</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44260.87631944445</v>
       </c>
       <c r="I105" t="n">
         <v>4</v>
@@ -8176,10 +7984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:58:29</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44260.87394675926</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8243,10 +8049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:45:02</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44260.86460648148</v>
       </c>
       <c r="I107" t="n">
         <v>11</v>
@@ -8314,10 +8118,8 @@
           <t>4223178392</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:43:29</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44260.8635300926</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -8385,10 +8187,8 @@
           <t>4223351144</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:42:50</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44260.8630787037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8448,10 +8248,8 @@
           <t>4223351144</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:30:08</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44260.85425925926</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8515,10 +8313,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:30:00</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44260.85416666666</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8586,10 +8382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:29:15</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44260.85364583333</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8666,10 +8460,8 @@
           <t>4223650926</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:28:29</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44260.85311342592</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8737,10 +8529,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:27:42</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44260.85256944445</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8808,10 +8598,8 @@
           <t>4223650926</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:26:31</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44260.85174768518</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8888,10 +8676,8 @@
           <t>4223646397</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:25:02</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44260.85071759259</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -8964,10 +8750,8 @@
           <t>4223628069</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:21:57</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44260.84857638889</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9035,10 +8819,8 @@
           <t>4223351144</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:18:43</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44260.84633101852</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9114,10 +8896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:16:47</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44260.84498842592</v>
       </c>
       <c r="I119" t="n">
         <v>7</v>
@@ -9185,10 +8965,8 @@
           <t>4223535930</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:14:12</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44260.84319444445</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9256,10 +9034,8 @@
           <t>4223351144</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:14:11</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44260.84318287037</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9319,10 +9095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:13:53</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44260.84297453704</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9394,10 +9168,8 @@
           <t>4223560684</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:08:07</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44260.83896990741</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9469,10 +9241,8 @@
           <t>4223535930</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:03:13</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44260.83556712963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9536,10 +9306,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:03:05</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44260.83547453704</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9607,10 +9375,8 @@
           <t>4223526607</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:01:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44260.83452546296</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9678,10 +9444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:01:13</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44260.83417824074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9745,10 +9509,8 @@
           <t>4223518188</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:00:35</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44260.83373842593</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9813,10 +9575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-05 20:00:00</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44260.83333333334</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9892,10 +9652,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:53:51</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44260.8290625</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9972,10 +9730,8 @@
           <t>4223184888</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:53:02</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44260.82849537037</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10043,10 +9799,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:48:31</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44260.8253587963</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10122,10 +9876,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:41:01</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44260.82015046296</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10192,10 +9944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:39:46</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44260.81928240741</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10259,10 +10009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:37:40</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44260.81782407407</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10334,10 +10082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:32:33</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44260.81427083333</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10397,10 +10143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:29:20</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44260.81203703704</v>
       </c>
       <c r="I137" t="n">
         <v>50</v>
@@ -10472,10 +10216,8 @@
           <t>4223184888</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:28:24</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44260.81138888889</v>
       </c>
       <c r="I138" t="n">
         <v>2</v>
@@ -10543,10 +10285,8 @@
           <t>4223351144</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:26:39</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44260.81017361111</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -10614,10 +10354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:21:25</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44260.80653935186</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10689,10 +10427,8 @@
           <t>4223184888</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:20:50</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44260.80613425926</v>
       </c>
       <c r="I141" t="n">
         <v>4</v>
@@ -10760,10 +10496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:20:19</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44260.80577546296</v>
       </c>
       <c r="I142" t="n">
         <v>9</v>
@@ -10835,10 +10569,8 @@
           <t>4223310629</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:19:28</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44260.80518518519</v>
       </c>
       <c r="I143" t="n">
         <v>2</v>
@@ -10902,10 +10634,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:19:10</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44260.80497685185</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -10977,10 +10707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:18:48</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44260.80472222222</v>
       </c>
       <c r="I145" t="n">
         <v>5</v>
@@ -11056,10 +10784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:16:43</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44260.80327546296</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11131,10 +10857,8 @@
           <t>4223282807</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:14:43</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44260.80188657407</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11198,10 +10922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:14:18</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44260.80159722222</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11270,10 +10992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:13:47</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44260.80123842593</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11349,10 +11069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:13:40</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44260.8011574074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11428,10 +11146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:13:33</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44260.80107638889</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11495,10 +11211,8 @@
           <t>4223264470</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:11:16</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44260.79949074074</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11566,10 +11280,8 @@
           <t>4223265188</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:10:04</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44260.79865740741</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11642,10 +11354,8 @@
           <t>4223258692</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:09:57</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44260.79857638889</v>
       </c>
       <c r="I154" t="n">
         <v>22</v>
@@ -11714,10 +11424,8 @@
           <t>4223224324</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:09:57</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44260.79857638889</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -11793,10 +11501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:09:51</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44260.79850694445</v>
       </c>
       <c r="I156" t="n">
         <v>52</v>
@@ -11868,10 +11574,8 @@
           <t>4223249303</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:08:16</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44260.79740740741</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11939,10 +11643,8 @@
           <t>4223244392</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:07:32</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44260.79689814815</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12010,10 +11712,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:06:27</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44260.79614583333</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12081,10 +11781,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:06:08</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44260.79592592592</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12148,10 +11846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:04:44</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44260.79495370371</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12223,10 +11919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:04:30</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44260.79479166667</v>
       </c>
       <c r="I162" t="n">
         <v>6</v>
@@ -12294,10 +11988,8 @@
           <t>4223115263</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:04:23</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44260.79471064815</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12361,10 +12053,8 @@
           <t>4223224324</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:03:42</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44260.79423611111</v>
       </c>
       <c r="I164" t="n">
         <v>135</v>
@@ -12424,10 +12114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:03:31</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44260.7941087963</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12503,10 +12191,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:03:14</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44260.79391203704</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12574,10 +12260,8 @@
           <t>4223217485</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:01:38</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44260.79280092593</v>
       </c>
       <c r="I167" t="n">
         <v>28</v>
@@ -12641,10 +12325,8 @@
           <t>4223216877</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:01:18</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44260.79256944444</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12712,10 +12394,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:01:01</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44260.79237268519</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12783,10 +12463,8 @@
           <t>4223110278</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:00:25</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44260.79195601852</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12854,10 +12532,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-05 19:00:24</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44260.79194444444</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12931,10 +12607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:59:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44260.79160879629</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12994,10 +12668,8 @@
           <t>4223205293</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:58:28</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44260.79060185186</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13065,10 +12737,8 @@
           <t>4223178392</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:57:39</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44260.79003472222</v>
       </c>
       <c r="I174" t="n">
         <v>20</v>
@@ -13132,10 +12802,8 @@
           <t>4223196441</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:57:33</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44260.78996527778</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13199,10 +12867,8 @@
           <t>4223195506</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:57:00</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44260.78958333333</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13266,10 +12932,8 @@
           <t>4223184888</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:56:38</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44260.7893287037</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13337,10 +13001,8 @@
           <t>4223183212</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:55:43</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44260.78869212963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13404,10 +13066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:55:21</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44260.7884375</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13479,10 +13139,8 @@
           <t>4223178392</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:55:06</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44260.78826388889</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -13546,10 +13204,8 @@
           <t>4223178392</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:54:19</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44260.78771990741</v>
       </c>
       <c r="I181" t="n">
         <v>95</v>
@@ -13613,10 +13269,8 @@
           <t>4223178027</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:54:06</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44260.78756944444</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13688,10 +13342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:53:28</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44260.78712962963</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13759,10 +13411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:53:16</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44260.78699074074</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13830,10 +13480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:52:57</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44260.78677083334</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13905,10 +13553,8 @@
           <t>4223175732</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:52:44</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44260.78662037037</v>
       </c>
       <c r="I186" t="n">
         <v>21</v>
@@ -13968,10 +13614,8 @@
           <t>4223166120</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:51:41</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44260.7858912037</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14043,10 +13687,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:51:21</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44260.78565972222</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14110,10 +13752,8 @@
           <t>4223165283</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:51:12</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44260.78555555556</v>
       </c>
       <c r="I189" t="n">
         <v>6</v>
@@ -14181,10 +13821,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:51:05</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44260.78547453704</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14252,10 +13890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:49:53</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44260.7846412037</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14327,10 +13963,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:49:26</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44260.7843287037</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14394,10 +14028,8 @@
           <t>4223149685</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:49:06</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44260.78409722223</v>
       </c>
       <c r="I193" t="n">
         <v>9</v>
@@ -14473,10 +14105,8 @@
           <t>4223110278</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:48:55</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44260.78396990741</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14548,10 +14178,8 @@
           <t>4223132340</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:47:14</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44260.78280092592</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14619,10 +14247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:46:49</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44260.78251157407</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14690,10 +14316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:46:06</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44260.78201388889</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14765,10 +14389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:45:00</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44260.78125</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14847,10 +14469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:44:53</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44260.78116898148</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14918,10 +14538,8 @@
           <t>4223132386</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:44:44</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44260.78106481482</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14989,10 +14607,8 @@
           <t>4223132340</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:44:42</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44260.78104166667</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15064,10 +14680,8 @@
           <t>4223132267</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:44:40</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44260.78101851852</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15131,10 +14745,8 @@
           <t>4223131461</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:44:09</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44260.78065972222</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15202,10 +14814,8 @@
           <t>4223115263</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:43:56</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44260.78050925926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15269,10 +14879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:43:44</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44260.78037037037</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15348,10 +14956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:43:12</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44260.78</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15427,10 +15033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:42:48</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44260.77972222222</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15498,10 +15102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:42:45</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44260.7796875</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15569,10 +15171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:42:42</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44260.77965277778</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15640,10 +15240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:42:38</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44260.77960648148</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15719,10 +15317,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:42:37</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44260.77959490741</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15786,10 +15382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:41:52</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44260.77907407407</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15853,10 +15447,8 @@
           <t>4223111369</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:41:00</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44260.77847222222</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15924,10 +15516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:40:44</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44260.77828703704</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15991,10 +15581,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:40:32</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44260.77814814815</v>
       </c>
       <c r="I215" t="n">
         <v>9</v>
@@ -16062,10 +15650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:40:29</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44260.77811342593</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16137,10 +15723,8 @@
           <t>4223115263</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:40:25</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44260.77806712963</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16204,10 +15788,8 @@
           <t>4223110278</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:40:23</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44260.77804398148</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
@@ -16275,10 +15857,8 @@
           <t>4223069438</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:40:19</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44260.77799768518</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16342,10 +15922,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:40:08</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44260.77787037037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16417,10 +15995,8 @@
           <t>4223099122</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:39:45</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44260.77760416667</v>
       </c>
       <c r="I221" t="n">
         <v>7</v>
@@ -16492,10 +16068,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:39:17</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44260.7772800926</v>
       </c>
       <c r="I222" t="n">
         <v>14</v>
@@ -16569,10 +16143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:39:08</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44260.77717592593</v>
       </c>
       <c r="I223" t="n">
         <v>391</v>
@@ -16648,10 +16220,8 @@
           <t>4223078374</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:39:07</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44260.77716435185</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16719,10 +16289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:39:04</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44260.77712962963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16798,10 +16366,8 @@
           <t>4223093071</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:38:27</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44260.77670138889</v>
       </c>
       <c r="I226" t="n">
         <v>11</v>
@@ -16865,10 +16431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:38:16</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44260.77657407407</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16932,10 +16496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:52</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44260.7762962963</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16995,10 +16557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:52</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44260.7762962963</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17070,10 +16630,8 @@
           <t>4223091962</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:48</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44260.77625</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17137,10 +16695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:39</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44260.77614583333</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17216,10 +16772,8 @@
           <t>4223091554</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:35</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44260.77609953703</v>
       </c>
       <c r="I232" t="n">
         <v>24</v>
@@ -17283,10 +16837,8 @@
           <t>4223091512</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:33</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44260.77607638889</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17358,10 +16910,8 @@
           <t>4223091400</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:30</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44260.77604166666</v>
       </c>
       <c r="I234" t="n">
         <v>21</v>
@@ -17425,10 +16975,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:21</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44260.7759375</v>
       </c>
       <c r="I235" t="n">
         <v>15</v>
@@ -17496,10 +17044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:37:14</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44260.77585648148</v>
       </c>
       <c r="I236" t="n">
         <v>36</v>
@@ -17575,10 +17121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:36:47</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44260.77554398148</v>
       </c>
       <c r="I237" t="n">
         <v>102</v>
@@ -17656,10 +17200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:36:33</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44260.77538194445</v>
       </c>
       <c r="I238" t="n">
         <v>13</v>
@@ -17731,10 +17273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:36:26</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44260.77530092592</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17806,10 +17346,8 @@
           <t>4223079231</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:36:16</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44260.77518518519</v>
       </c>
       <c r="I240" t="n">
         <v>55</v>
@@ -17873,10 +17411,8 @@
           <t>4223087398</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:35:57</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44260.77496527778</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17940,10 +17476,8 @@
           <t>4223078374</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:35:46</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44260.77483796296</v>
       </c>
       <c r="I242" t="n">
         <v>9</v>
@@ -18022,10 +17556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:35:31</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44260.77466435185</v>
       </c>
       <c r="I243" t="n">
         <v>1101</v>
@@ -18089,10 +17621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:35:11</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44260.77443287037</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18164,10 +17694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:34:30</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44260.77395833333</v>
       </c>
       <c r="I245" t="n">
         <v>4</v>
@@ -18243,10 +17771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:34:26</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44260.77391203704</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18306,10 +17832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:34:23</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44260.77387731482</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18381,10 +17905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:34:15</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44260.77378472222</v>
       </c>
       <c r="I248" t="n">
         <v>46</v>
@@ -18460,10 +17982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:59</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44260.77359953704</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18539,10 +18059,8 @@
           <t>4223069438</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:55</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44260.77355324074</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -18618,10 +18136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:41</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44260.7733912037</v>
       </c>
       <c r="I251" t="n">
         <v>2</v>
@@ -18697,10 +18213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:38</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44260.77335648148</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18779,10 +18293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:36</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44260.77333333333</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18858,10 +18370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44260.77327546296</v>
       </c>
       <c r="I254" t="n">
         <v>202</v>
@@ -18929,10 +18439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:30</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44260.77326388889</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19008,10 +18516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:17</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44260.77311342592</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -19075,10 +18581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:15</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44260.77309027778</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19154,10 +18658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:13</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44260.77306712963</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19217,10 +18719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:02</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44260.77293981481</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19296,10 +18796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:33:01</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44260.77292824074</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19363,10 +18861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:53</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44260.77283564815</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19436,10 +18932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:52</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44260.77282407408</v>
       </c>
       <c r="I262" t="n">
         <v>328</v>
@@ -19516,10 +19010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:51</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44260.7728125</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19587,10 +19079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:49</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44260.77278935185</v>
       </c>
       <c r="I264" t="n">
         <v>4</v>
@@ -19666,10 +19156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:48</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44260.77277777778</v>
       </c>
       <c r="I265" t="n">
         <v>8</v>
@@ -19737,10 +19225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:46</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44260.77275462963</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19804,10 +19290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:43</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44260.77271990741</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19883,10 +19367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:41</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44260.77269675926</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19962,10 +19444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-05 18:32:32</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44260.77259259259</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
